--- a/documents/master_thesis/figures/convergence_border_vorstadtnetz.xlsx
+++ b/documents/master_thesis/figures/convergence_border_vorstadtnetz.xlsx
@@ -754,11 +754,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="376950248"/>
-        <c:axId val="376946608"/>
+        <c:axId val="215099624"/>
+        <c:axId val="215100008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376950248"/>
+        <c:axId val="215099624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376946608"/>
+        <c:crossAx val="215100008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="376946608"/>
+        <c:axId val="215100008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -923,7 +923,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376950248"/>
+        <c:crossAx val="215099624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1107,11 +1107,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="376982120"/>
-        <c:axId val="377318944"/>
+        <c:axId val="214118392"/>
+        <c:axId val="214118776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="376982120"/>
+        <c:axId val="214118392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1154,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377318944"/>
+        <c:crossAx val="214118776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377318944"/>
+        <c:axId val="214118776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000000"/>
@@ -1271,7 +1271,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376982120"/>
+        <c:crossAx val="214118392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,11 +1437,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="377384032"/>
-        <c:axId val="377384416"/>
+        <c:axId val="214870832"/>
+        <c:axId val="214871216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="377384032"/>
+        <c:axId val="214870832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,7 +1484,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377384416"/>
+        <c:crossAx val="214871216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1492,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377384416"/>
+        <c:axId val="214871216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1976000"/>
@@ -1606,7 +1606,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377384032"/>
+        <c:crossAx val="214870832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3648,8 +3648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
